--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinal\Desktop\tatvsoft_vgec\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinal\Desktop\tatvsoft_vgec\Project1\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20338C18-338C-49A9-BFC1-D7E8D9370BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531EA8E0-6C92-43F8-8B48-B1BE521D3F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="191">
   <si>
     <t>Field Name</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Approveal date add by admin</t>
   </si>
   <si>
-    <t>ApproveBy</t>
-  </si>
-  <si>
     <t>admin email id who approved the notes</t>
   </si>
   <si>
@@ -782,31 +779,6 @@
     <t>otheremail</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Table</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: - Contact Us</t>
-    </r>
-  </si>
-  <si>
     <t>full name of user and if user is rejister then auto populate</t>
   </si>
   <si>
@@ -850,9 +822,6 @@
     <t>NoteID*</t>
   </si>
   <si>
-    <t>CreatedBy*</t>
-  </si>
-  <si>
     <t>NotesTitle*</t>
   </si>
   <si>
@@ -871,9 +840,6 @@
     <t>NotesDescription*</t>
   </si>
   <si>
-    <t>SellFor*</t>
-  </si>
-  <si>
     <t>SellPrice*</t>
   </si>
   <si>
@@ -944,6 +910,58 @@
   </si>
   <si>
     <t>Comments*</t>
+  </si>
+  <si>
+    <t>SecondaryEmail</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>update email id</t>
+  </si>
+  <si>
+    <t>AdminRemarks</t>
+  </si>
+  <si>
+    <t>CreatedBy*/sellerID</t>
+  </si>
+  <si>
+    <t>CreatedDate/PublishedDate</t>
+  </si>
+  <si>
+    <t>SellFor*/ispaid</t>
+  </si>
+  <si>
+    <t>ApproveBy/action by</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY relationship with Notes table</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: - ReferenceData</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1377,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,7 +1470,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1467,7 +1485,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>40</v>
@@ -1535,7 +1553,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>9</v>
@@ -1782,7 +1800,7 @@
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1791,7 +1809,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1817,7 +1835,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>6</v>
@@ -1832,7 +1850,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>40</v>
@@ -1844,12 +1862,12 @@
         <v>15</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>6</v>
@@ -1859,18 +1877,18 @@
         <v>15</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>8</v>
@@ -1881,24 +1899,24 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>6</v>
@@ -1908,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1923,18 +1941,18 @@
         <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>15</v>
@@ -1945,7 +1963,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>40</v>
@@ -1972,7 +1990,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2011,24 +2029,22 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="3">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>6</v>
@@ -2038,7 +2054,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2049,13 +2065,13 @@
         <v>40</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2072,7 +2088,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2092,22 +2108,22 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>11</v>
@@ -2122,7 +2138,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>6</v>
@@ -2182,7 +2198,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>40</v>
@@ -2194,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2205,7 +2221,9 @@
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2213,7 +2231,7 @@
     </row>
     <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2222,7 +2240,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2261,15 +2279,25 @@
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
+      <c r="A75" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="3">
+        <v>50</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>40</v>
@@ -2279,12 +2307,12 @@
         <v>8</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>53</v>
@@ -2294,12 +2322,12 @@
         <v>8</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>40</v>
@@ -2309,12 +2337,12 @@
         <v>8</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>6</v>
@@ -2324,12 +2352,12 @@
         <v>8</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>40</v>
@@ -2339,29 +2367,29 @@
         <v>15</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>40</v>
@@ -2371,12 +2399,12 @@
         <v>8</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>40</v>
@@ -2386,12 +2414,12 @@
         <v>15</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>40</v>
@@ -2401,12 +2429,12 @@
         <v>8</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>40</v>
@@ -2416,12 +2444,12 @@
         <v>8</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>6</v>
@@ -2431,12 +2459,12 @@
         <v>15</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>40</v>
@@ -2446,12 +2474,12 @@
         <v>8</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>40</v>
@@ -2461,12 +2489,12 @@
         <v>8</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>40</v>
@@ -2476,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2499,7 +2527,7 @@
         <v>22</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
@@ -2553,7 +2581,7 @@
     </row>
     <row r="103" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -2586,7 +2614,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>6</v>
@@ -2601,7 +2629,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>6</v>
@@ -2611,12 +2639,12 @@
         <v>15</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>40</v>
@@ -2628,12 +2656,12 @@
         <v>8</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>6</v>
@@ -2648,7 +2676,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>40</v>
@@ -2740,7 +2768,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>6</v>
@@ -2750,12 +2778,12 @@
         <v>15</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>9</v>
@@ -2765,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -2784,7 +2812,7 @@
     </row>
     <row r="126" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -2817,7 +2845,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>6</v>
@@ -2832,7 +2860,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>40</v>
@@ -2849,7 +2877,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>40</v>
@@ -2866,7 +2894,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>6</v>
@@ -2941,7 +2969,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>9</v>
@@ -2951,7 +2979,7 @@
         <v>15</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -2984,7 +3012,7 @@
     </row>
     <row r="151" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -3017,7 +3045,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>6</v>
@@ -3032,7 +3060,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>6</v>
@@ -3042,12 +3070,12 @@
         <v>15</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>6</v>
@@ -3059,12 +3087,12 @@
         <v>8</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>6</v>
@@ -3074,22 +3102,22 @@
         <v>8</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3154,7 +3182,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>40</v>
@@ -3163,10 +3191,10 @@
         <v>26</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3192,7 +3220,7 @@
     </row>
     <row r="174" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -3225,7 +3253,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>6</v>
@@ -3240,7 +3268,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>40</v>
@@ -3252,12 +3280,12 @@
         <v>15</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>40</v>
@@ -3266,15 +3294,15 @@
         <v>50</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>40</v>
@@ -3284,12 +3312,12 @@
         <v>8</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>40</v>
@@ -3301,12 +3329,12 @@
         <v>15</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>40</v>
@@ -3318,12 +3346,12 @@
         <v>15</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>40</v>
@@ -3335,12 +3363,12 @@
         <v>15</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>40</v>
@@ -3352,12 +3380,12 @@
         <v>15</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>40</v>
@@ -3369,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -3449,7 +3477,7 @@
     </row>
     <row r="200" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -3497,7 +3525,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>40</v>
@@ -3509,12 +3537,12 @@
         <v>15</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>40</v>
@@ -3526,12 +3554,12 @@
         <v>15</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>40</v>
@@ -3543,24 +3571,24 @@
         <v>15</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -3636,7 +3664,7 @@
     </row>
     <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -3684,7 +3712,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>40</v>
@@ -3696,12 +3724,12 @@
         <v>15</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>40</v>
@@ -3713,12 +3741,12 @@
         <v>8</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>40</v>
@@ -3728,12 +3756,12 @@
         <v>8</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>40</v>
@@ -3741,12 +3769,12 @@
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>40</v>
@@ -3756,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -3857,7 +3885,7 @@
     </row>
     <row r="250" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -3890,7 +3918,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>6</v>
@@ -3905,7 +3933,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>40</v>
@@ -3917,12 +3945,12 @@
         <v>15</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>40</v>
@@ -3934,7 +3962,7 @@
         <v>15</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -4056,7 +4084,7 @@
     </row>
     <row r="270" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -4089,7 +4117,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>6</v>
@@ -4104,7 +4132,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>40</v>
@@ -4116,12 +4144,12 @@
         <v>15</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>40</v>
@@ -4133,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -4213,7 +4241,7 @@
     </row>
     <row r="285" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -4246,7 +4274,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>6</v>
@@ -4261,7 +4289,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>40</v>
@@ -4273,12 +4301,12 @@
         <v>15</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>6</v>
@@ -4288,7 +4316,7 @@
         <v>15</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
